--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4335"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="36">
   <si>
     <t>DARLENE</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Maycol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">paulo </t>
   </si>
   <si>
     <t xml:space="preserve">Luis Antonio </t>
@@ -160,6 +163,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -500,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G32"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,30 +517,31 @@
     <col min="3" max="3" width="25.28515625" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -556,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G2">
         <v>-10</v>
@@ -671,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -717,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -737,10 +742,10 @@
         <v>0.26041667000000002</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10">
         <v>-10</v>
@@ -786,7 +791,7 @@
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G12">
         <v>-5</v>
@@ -832,7 +837,7 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14">
         <v>-10</v>
@@ -901,7 +906,7 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G17">
         <v>10</v>
@@ -935,36 +940,36 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>8.6999999999999993</v>
+        <v>20</v>
       </c>
       <c r="C19" s="2">
-        <v>0.28125</v>
+        <v>0.25</v>
       </c>
       <c r="D19" s="1">
-        <v>0.28125</v>
-      </c>
-      <c r="E19" s="1" t="s">
+        <v>0.25</v>
+      </c>
+      <c r="E19" t="s">
         <v>10</v>
       </c>
       <c r="F19" t="s">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20">
         <v>8.6999999999999993</v>
       </c>
       <c r="C20" s="2">
-        <v>0.29166667000000002</v>
+        <v>0.28125</v>
       </c>
       <c r="D20" s="1">
-        <v>0.29166667000000002</v>
+        <v>0.28125</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>10</v>
@@ -973,7 +978,7 @@
         <v>4</v>
       </c>
       <c r="G20">
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -981,45 +986,45 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7.9</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="C21" s="2">
-        <v>0.30555556</v>
+        <v>0.29166667000000002</v>
       </c>
       <c r="D21" s="1">
-        <v>0.30555556</v>
+        <v>0.29166667000000002</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22">
         <v>7.9</v>
       </c>
       <c r="C22" s="2">
-        <v>0.3125</v>
+        <v>0.30555556</v>
       </c>
       <c r="D22" s="1">
-        <v>0.3125</v>
+        <v>0.30555556</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1027,45 +1032,45 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10</v>
+        <v>7.9</v>
       </c>
       <c r="C23" s="2">
-        <v>0.27777777999999997</v>
+        <v>0.3125</v>
       </c>
       <c r="D23" s="1">
-        <v>0.27777777999999997</v>
+        <v>0.3125</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <v>0.28472222000000003</v>
+        <v>0.27777777999999997</v>
       </c>
       <c r="D24" s="1">
-        <v>0.28472222000000003</v>
+        <v>0.27777777999999997</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G24">
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1073,45 +1078,45 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>10.4</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
-        <v>0.28125</v>
+        <v>0.28472222000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>0.28125</v>
+        <v>0.28472222000000003</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G25">
-        <v>-10</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>10.4</v>
       </c>
       <c r="C26" s="2">
-        <v>0.29166667000000002</v>
+        <v>0.28125</v>
       </c>
       <c r="D26" s="1">
-        <v>0.29166667000000002</v>
+        <v>0.28125</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G26">
-        <v>10</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1119,7 +1124,7 @@
         <v>23</v>
       </c>
       <c r="B27">
-        <v>7.9</v>
+        <v>10.4</v>
       </c>
       <c r="C27" s="2">
         <v>0.29166667000000002</v>
@@ -1128,18 +1133,18 @@
         <v>0.29166667000000002</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G27">
-        <v>-5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>7.9</v>
@@ -1154,10 +1159,10 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>-10</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1165,27 +1170,27 @@
         <v>24</v>
       </c>
       <c r="B29">
-        <v>3.8</v>
+        <v>7.9</v>
       </c>
       <c r="C29" s="2">
-        <v>0.31597222000000003</v>
+        <v>0.29166667000000002</v>
       </c>
       <c r="D29" s="1">
-        <v>0.31597222000000003</v>
+        <v>0.29166667000000002</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G29">
-        <v>5</v>
+        <v>-10</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>3.8</v>
@@ -1200,30 +1205,30 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>-10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>3.8</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.31597222000000003</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.31597222000000003</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s">
         <v>26</v>
-      </c>
-      <c r="B31">
-        <v>3.2</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0.3125</v>
-      </c>
-      <c r="D31" s="1">
-        <v>0.3125</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F31" t="s">
-        <v>25</v>
       </c>
       <c r="G31">
         <v>-10</v>
@@ -1231,7 +1236,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>3.2</v>
@@ -1243,12 +1248,35 @@
         <v>0.3125</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32">
+        <v>-10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>3.2</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.3125</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0.3125</v>
+      </c>
+      <c r="E33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F32" t="s">
-        <v>4</v>
-      </c>
-      <c r="G32">
+      <c r="F33" t="s">
+        <v>4</v>
+      </c>
+      <c r="G33">
         <v>5</v>
       </c>
     </row>
